--- a/spliced/walkingToRunning/2023-03-30_14-20-17/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-20-17/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.409592151641846</v>
+        <v>-1.260086536407471</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.797701358795166</v>
+        <v>-6.693731784820557</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.467254638671875</v>
+        <v>-10.91690349578857</v>
       </c>
       <c r="F2" t="n">
-        <v>1.069824206172887</v>
+        <v>0.09952953143403931</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.056831963565377</v>
+        <v>-0.1946007158231257</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4002157214584807</v>
+        <v>-1.235400125247621</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2414607405662536</v>
+        <v>-0.3250093758106231</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.242396354675293</v>
+        <v>-9.289229393005373</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.609268188476562</v>
+        <v>-12.17654037475586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4100321372714515</v>
+        <v>0.7596392552240191</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9452285936119162</v>
+        <v>-0.4710539486430101</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8878356365982556</v>
+        <v>-1.249458708894362</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.260086536407471</v>
+        <v>-0.197640836238861</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.693731784820557</v>
+        <v>-8.023595809936523</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.91690349578857</v>
+        <v>-9.897425651550291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09952953143403931</v>
+        <v>0.9691518504138372</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1946007158231257</v>
+        <v>-1.144679769326803</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.235400125247621</v>
+        <v>-1.013632127177822</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.3250093758106231</v>
+        <v>8.160659790039062</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.289229393005373</v>
+        <v>-11.02071857452393</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.17654037475586</v>
+        <v>-0.9127321243286132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7596392552240191</v>
+        <v>0.5637087537607993</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4710539486430101</v>
+        <v>-0.8698977423370384</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.249458708894362</v>
+        <v>-0.6591360478773013</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.197640836238861</v>
+        <v>0.2106014490127563</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.023595809936523</v>
+        <v>-8.135941505432129</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.897425651550291</v>
+        <v>-7.824718952178955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9691518504138372</v>
+        <v>-1.529567692257933</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.144679769326803</v>
+        <v>-0.1701191907423907</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.013632127177822</v>
+        <v>2.089324393540335</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.160659790039062</v>
+        <v>3.468891382217407</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.02071857452393</v>
+        <v>-25.93060493469238</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9127321243286132</v>
+        <v>3.170974254608154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5637087537607993</v>
+        <v>-1.60695329718632</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8698977423370384</v>
+        <v>0.9596939690479577</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6591360478773013</v>
+        <v>2.503135678965</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2106014490127563</v>
+        <v>-34.4773063659668</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.135941505432129</v>
+        <v>-0.4352650642395019</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.824718952178955</v>
+        <v>-17.56653213500977</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.529567692257933</v>
+        <v>-4.042883170033875</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1701191907423907</v>
+        <v>4.578179887675418</v>
       </c>
       <c r="H8" t="n">
-        <v>2.089324393540335</v>
+        <v>0.4566991565697582</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.468891382217407</v>
+        <v>-14.77978038787842</v>
       </c>
       <c r="D9" t="n">
-        <v>-25.93060493469238</v>
+        <v>-11.52226448059082</v>
       </c>
       <c r="E9" t="n">
-        <v>3.170974254608154</v>
+        <v>-11.90310859680176</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.60695329718632</v>
+        <v>-0.6153825116813314</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9596939690479577</v>
+        <v>0.4450490321587646</v>
       </c>
       <c r="H9" t="n">
-        <v>2.503135678965</v>
+        <v>-1.158701128369084</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-34.4773063659668</v>
+        <v>24.58778762817383</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4352650642395019</v>
+        <v>-1.438390731811523</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.56653213500977</v>
+        <v>15.80244827270508</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.042883170033875</v>
+        <v>5.463495351852635</v>
       </c>
       <c r="G10" t="n">
-        <v>4.578179887675418</v>
+        <v>-3.977313330414098</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4566991565697582</v>
+        <v>-3.230007587222884</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-14.77978038787842</v>
+        <v>3.9564049243927</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.52226448059082</v>
+        <v>-11.81492042541504</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.90310859680176</v>
+        <v>11.41962051391602</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6153825116813314</v>
+        <v>4.66184952062202</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4450490321587646</v>
+        <v>3.56197387800312</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.158701128369084</v>
+        <v>-1.986260027786983</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.58778762817383</v>
+        <v>0.3332785367965698</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.438390731811523</v>
+        <v>0.8126574158668518</v>
       </c>
       <c r="E12" t="n">
-        <v>15.80244827270508</v>
+        <v>-8.991792678833008</v>
       </c>
       <c r="F12" t="n">
-        <v>5.463495351852635</v>
+        <v>-0.716348304661115</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.977313330414098</v>
+        <v>4.782481053553503</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.230007587222884</v>
+        <v>2.407147008686489</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.9564049243927</v>
+        <v>26.99358177185058</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.81492042541504</v>
+        <v>-74.40792083740234</v>
       </c>
       <c r="E13" t="n">
-        <v>11.41962051391602</v>
+        <v>2.843526840209961</v>
       </c>
       <c r="F13" t="n">
-        <v>4.66184952062202</v>
+        <v>-4.534485773209054</v>
       </c>
       <c r="G13" t="n">
-        <v>3.56197387800312</v>
+        <v>1.10340199667379</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.986260027786983</v>
+        <v>3.735504924704164</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3332785367965698</v>
+        <v>47.74433135986328</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8126574158668518</v>
+        <v>8.593025207519531</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.991792678833008</v>
+        <v>-17.67363357543945</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.716348304661115</v>
+        <v>-5.989971771152742</v>
       </c>
       <c r="G14" t="n">
-        <v>4.782481053553503</v>
+        <v>4.972828354857392</v>
       </c>
       <c r="H14" t="n">
-        <v>2.407147008686489</v>
+        <v>1.774531464511098</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26.99358177185058</v>
+        <v>0.0659644603729248</v>
       </c>
       <c r="D15" t="n">
-        <v>-74.40792083740234</v>
+        <v>-10.85460472106934</v>
       </c>
       <c r="E15" t="n">
-        <v>2.843526840209961</v>
+        <v>-14.575852394104</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.534485773209054</v>
+        <v>-4.013937945759595</v>
       </c>
       <c r="G15" t="n">
-        <v>1.10340199667379</v>
+        <v>5.69700783545815</v>
       </c>
       <c r="H15" t="n">
-        <v>3.735504924704164</v>
+        <v>-1.538702366548966</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47.74433135986328</v>
+        <v>29.60918045043945</v>
       </c>
       <c r="D16" t="n">
-        <v>8.593025207519531</v>
+        <v>-78.06973266601562</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.67363357543945</v>
+        <v>16.24357986450195</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.989971771152742</v>
+        <v>2.29124034763484</v>
       </c>
       <c r="G16" t="n">
-        <v>4.972828354857392</v>
+        <v>0.5539356289653035</v>
       </c>
       <c r="H16" t="n">
-        <v>1.774531464511098</v>
+        <v>-3.10506863769041</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0659644603729248</v>
+        <v>-4.278045177459717</v>
       </c>
       <c r="D17" t="n">
-        <v>-10.85460472106934</v>
+        <v>2.075074911117554</v>
       </c>
       <c r="E17" t="n">
-        <v>-14.575852394104</v>
+        <v>-9.626623153686523</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.013937945759595</v>
+        <v>4.105864645144252</v>
       </c>
       <c r="G17" t="n">
-        <v>5.69700783545815</v>
+        <v>-2.789147576060868</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.538702366548966</v>
+        <v>-3.677538324933537</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29.60918045043945</v>
+        <v>16.6558837890625</v>
       </c>
       <c r="D18" t="n">
-        <v>-78.06973266601562</v>
+        <v>-14.57428646087646</v>
       </c>
       <c r="E18" t="n">
-        <v>16.24357986450195</v>
+        <v>21.4177131652832</v>
       </c>
       <c r="F18" t="n">
-        <v>2.29124034763484</v>
+        <v>0.2592948106450716</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5539356289653035</v>
+        <v>-3.157548316028139</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.10506863769041</v>
+        <v>-0.8597697675774869</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4.278045177459717</v>
+        <v>-54.05896377563477</v>
       </c>
       <c r="D19" t="n">
-        <v>2.075074911117554</v>
+        <v>-32.270751953125</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.626623153686523</v>
+        <v>-11.78435802459717</v>
       </c>
       <c r="F19" t="n">
-        <v>4.105864645144252</v>
+        <v>-6.645317213251005</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.789147576060868</v>
+        <v>-0.560946681083867</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.677538324933537</v>
+        <v>5.571864681506409</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.6558837890625</v>
+        <v>1.290312767028809</v>
       </c>
       <c r="D20" t="n">
-        <v>-14.57428646087646</v>
+        <v>-2.825088739395142</v>
       </c>
       <c r="E20" t="n">
-        <v>21.4177131652832</v>
+        <v>-12.40687561035156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2592948106450716</v>
+        <v>-1.937935614804442</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.157548316028139</v>
+        <v>-0.1515454994429453</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.8597697675774869</v>
+        <v>-1.15992745128265</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-54.05896377563477</v>
+        <v>-6.366491794586182</v>
       </c>
       <c r="D21" t="n">
-        <v>-32.270751953125</v>
+        <v>-13.87612628936768</v>
       </c>
       <c r="E21" t="n">
-        <v>-11.78435802459717</v>
+        <v>-13.16234016418457</v>
       </c>
       <c r="F21" t="n">
-        <v>-6.645317213251005</v>
+        <v>2.910339694743533</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.560946681083867</v>
+        <v>-5.836961925576653</v>
       </c>
       <c r="H21" t="n">
-        <v>5.571864681506409</v>
+        <v>-4.45155078828873</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.204625129699707</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.39580774307251</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-2.694075107574463</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.819924138400946</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3.973247524795179</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.4456482636272369</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.387409210205078</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.1273889541625976</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.40644645690918</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.989335611325833</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2693817703002244</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.09849660987155473</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-30.62431526184082</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-35.95574188232422</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.9927592277526855</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.755865255627084</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.09460148078591657</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.946894074251968</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>31.11456108093262</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10.69985771179199</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-13.1208086013794</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.889570736010117</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.743136939652585</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5475007984615461</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-20.68763160705566</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-28.60056304931641</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-20.36888885498047</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.842574656009669</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.510396480560456</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.828126966953318</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>27.19162559509277</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-76.43211364746094</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.331388473510742</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.88307266279109</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-8.930636825911506</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.004032475139075</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.005526781082153</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.733113288879395</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-6.29358959197998</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.052329929460007</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-3.608018367662238</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.160855819325922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-72.39521789550781</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-77.27358245849609</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66.16534423828125</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.29231422538059</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.658297274637648</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.279984981641821</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-17.93119621276855</v>
+      </c>
+      <c r="D30" t="n">
+        <v>35.98200607299805</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.464548587799072</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4.269718651377847</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.122582794056059</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.14775515915062</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0441454052925109</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-11.34683990478516</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-10.79495239257812</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-2.918748300009885</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.177203515254081</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-6.725167151984817</v>
       </c>
     </row>
   </sheetData>
